--- a/InputFiles/CDS/TC02_CDS_phs003432_Gender_Female.xlsx
+++ b/InputFiles/CDS/TC02_CDS_phs003432_Gender_Female.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation\sowjanya0925\Commons_Automation\InputFiles\CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F904532-AC43-4DDC-A031-2D14AE5FD9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99702020-01C3-4A3E-95E1-2FBD8826C768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -109,53 +109,6 @@
      s.phs_accession = 'phs003432' AND sp.gender = 'Female'
 ORDER BY 
     smp.sample_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT
-    f1.file_name AS "File Name",
-    s.study_name AS "Study Name",
-    s.phs_accession AS "Accession",
-    sp.participant_id AS "Participant Id",
-    COALESCE((
-        SELECT
-            REPLACE(GROUP_CONCAT(CASE WHEN rn &lt;= 5 THEN smp.sample_id ELSE NULL END, ', '), ', , ', ', ') ||
-            CASE WHEN MAX(rn) &gt; 5 THEN ', ...' ELSE '' END
-        FROM (
-            SELECT
-                smp.sample_id,
-                ROW_NUMBER() OVER (ORDER BY smp.sample_id) AS rn
-            FROM df_sample smp
-            WHERE smp."participant.study_participant_id" = sp.study_participant_id
-        ) smp
-    ), '') AS "Sample Id",
-    f1.file_type AS "File Type",
-    gi.library_strategy AS "Library Strategy"
-FROM 
-    df_study s
-INNER JOIN 
-    df_participant sp ON sp."study.phs_accession" = s.phs_accession
-INNER JOIN  
-    df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
-INNER JOIN 
-    df_file f1 ON f1."sample.sample_id" = smp.sample_id
-INNER JOIN
-    df_genomic_info gi ON gi."file.file_id" = f1.file_id
-INNER JOIN
-    df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
-INNER JOIN
-    df_program p ON p.program_acronym = s."program.program_acronym"
-WHERE 
-     s.phs_accession = 'phs003432' AND sp.gender = 'Female'
-GROUP BY
-    f1.file_name,
-    s.study_name,
-    s.phs_accession,
-    sp.participant_id,
-    f1.file_type,
-    gi.library_strategy
-ORDER BY 
-    f1.file_name ASC
 LIMIT 100;</t>
   </si>
   <si>
@@ -217,6 +170,53 @@
     study_name,
     phs_accession,
     gender
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT
+    f1.file_name AS "File Name",
+    s.study_name AS "Study Name",
+    s.phs_accession AS "Accession",
+    sp.participant_id AS "Participant Id",
+    COALESCE((
+        SELECT
+            REPLACE(GROUP_CONCAT(CASE WHEN rn &lt;= 5 THEN smp.sample_id ELSE NULL END, ', '), ', , ', ', ') ||
+            CASE WHEN MAX(rn) &gt; 5 THEN ', ...' ELSE '' END
+        FROM (
+            SELECT
+                smp.sample_id,
+                ROW_NUMBER() OVER (ORDER BY smp.sample_id) AS rn
+            FROM df_sample smp
+            WHERE smp."participant.study_participant_id" = sp.study_participant_id
+        ) smp
+    ), '') AS "Sample Id",
+    f1.file_type AS "File Type",
+    gi.library_strategy AS "Library Strategy"
+FROM 
+    df_study s
+INNER JOIN 
+    df_participant sp ON sp."study.phs_accession" = s.phs_accession
+INNER JOIN  
+    df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
+INNER JOIN 
+    df_file f1 ON f1."sample.sample_id" = smp.sample_id
+INNER JOIN
+    df_genomic_info gi ON gi."file.file_id" = f1.file_id
+INNER JOIN
+    df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
+INNER JOIN
+    df_program p ON p.program_acronym = s."program.program_acronym"
+WHERE 
+    s.phs_accession = 'phs003432' AND sp.gender = 'Female'
+GROUP BY
+    f1.file_name,
+    s.study_name,
+    s.phs_accession,
+    sp.participant_id,
+    f1.file_type,
+    gi.library_strategy
+ORDER BY 
+    f1.file_name ASC
 LIMIT 100;</t>
   </si>
 </sst>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
     </row>
